--- a/docs/results-2.xlsx
+++ b/docs/results-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itay\IDEA Projects\gp-heuristic\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itay\IdeaProjects\gp-heuristic\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
     <col min="9" max="9" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -565,7 +565,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -593,7 +593,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -621,7 +621,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -649,7 +649,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -679,7 +679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -735,7 +735,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -748,7 +748,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -775,8 +775,12 @@
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>SUM(H2:H11)/50</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -804,7 +808,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -832,7 +836,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -862,7 +866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -890,7 +894,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -917,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -945,7 +949,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -972,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -1079,8 +1083,12 @@
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>SUM(H12:H21)/50</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +1142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1143,7 +1151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H32">
         <f>SUM(H2:H31)/(COUNT(H2:H31)*5)</f>
         <v>0.37</v>
